--- a/publication/web-root/cibmtr-reporting/ValueSet-gvhd-sct-codes.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-gvhd-sct-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T11:11:22-05:00</t>
+    <t>2023-05-04T21:49:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/cibmtr-reporting/ValueSet-gvhd-sct-codes.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-gvhd-sct-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:49:21-05:00</t>
+    <t>2023-05-05T10:50:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/cibmtr-reporting/ValueSet-gvhd-sct-codes.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-gvhd-sct-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:50:04-05:00</t>
+    <t>2024-08-27T12:23:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,16 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>The Medical College of Wisconsin, Inc. and the National Marrow Donor Program (http://www.cibmtr.org)</t>
+  </si>
+  <si>
+    <t>Bob Milius (bmilius@nmdp.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -100,9 +109,6 @@
   </si>
   <si>
     <t>234646005</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -230,10 +236,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -242,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -337,35 +343,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -390,7 +404,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -398,29 +412,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/publication/web-root/cibmtr-reporting/ValueSet-gvhd-sct-codes.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-gvhd-sct-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:50:04-05:00</t>
+    <t>2024-11-22T12:33:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,16 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>The Medical College of Wisconsin, Inc. and the National Marrow Donor Program (http://www.cibmtr.org)</t>
+  </si>
+  <si>
+    <t>Bob Milius (bmilius@nmdp.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -100,9 +109,6 @@
   </si>
   <si>
     <t>234646005</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -230,10 +236,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -242,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -337,35 +343,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -390,7 +404,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -398,29 +412,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/publication/web-root/cibmtr-reporting/ValueSet-gvhd-sct-codes.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-gvhd-sct-codes.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:50:04-05:00</t>
+    <t>2025-02-18T16:25:42-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,16 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>The Medical College of Wisconsin, Inc. and the National Marrow Donor Program (http://www.cibmtr.org)</t>
+  </si>
+  <si>
+    <t>Bob Milius (bmilius@nmdp.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -100,9 +109,6 @@
   </si>
   <si>
     <t>234646005</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -230,10 +236,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -242,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -337,35 +343,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -390,7 +404,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -398,29 +412,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/publication/web-root/cibmtr-reporting/ValueSet-gvhd-sct-codes.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-gvhd-sct-codes.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-18T16:25:42-06:00</t>
+    <t>2023-05-05T10:50:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,43 +72,37 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>The Medical College of Wisconsin, Inc. and the National Marrow Donor Program (http://www.cibmtr.org)</t>
-  </si>
-  <si>
-    <t>Bob Milius (bmilius@nmdp.org)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>is-a</t>
+  </si>
+  <si>
+    <t>234646005</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>concept</t>
-  </si>
-  <si>
-    <t>is-a</t>
-  </si>
-  <si>
-    <t>234646005</t>
   </si>
   <si>
     <t>System URI</t>
@@ -236,10 +230,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -248,7 +242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -343,43 +337,35 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>9</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -404,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -412,29 +398,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
